--- a/example_data/EMA/label_corrected/cayston-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cayston-epar-product-information_en.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - adolescent || populations - adult || populations - pediatric</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
